--- a/additional_files/pinout.xlsx
+++ b/additional_files/pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t xml:space="preserve">dest</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t xml:space="preserve">RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom temperature sensor DS18B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneWire</t>
   </si>
   <si>
     <t xml:space="preserve">Heater SSR output</t>
@@ -94,6 +100,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +122,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,28 +180,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,257 +395,262 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.88"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="n">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="n">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="n">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="n">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="n">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="n">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="n">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="n">
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="n">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3" t="n">
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="n">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="n">
+      <c r="B14" s="3"/>
+      <c r="C14" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="n">
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="n">
+      <c r="B15" s="3"/>
+      <c r="C15" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="n">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="n">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="n">
+      <c r="B18" s="3"/>
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/additional_files/pinout.xlsx
+++ b/additional_files/pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">dest</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t xml:space="preserve">OneWire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top temperature sensor DS18B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load cell 1 D_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load cell 1 SCK</t>
   </si>
   <si>
     <t xml:space="preserve">Heater SSR output</t>
@@ -395,7 +404,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,6 +436,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -440,6 +450,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -456,6 +467,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="n">
         <v>36</v>
@@ -467,6 +479,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="n">
         <v>39</v>
@@ -478,6 +491,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="n">
         <v>34</v>
@@ -489,6 +503,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="n">
         <v>35</v>
@@ -516,7 +531,12 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="4" t="n">
         <v>33</v>
       </c>
@@ -527,6 +547,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="n">
         <v>25</v>
@@ -538,6 +561,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="n">
         <v>26</v>
@@ -549,6 +575,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="n">
         <v>27</v>
@@ -560,6 +587,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6" t="n">
         <v>14</v>
@@ -571,6 +599,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6" t="n">
         <v>12</v>
@@ -582,6 +611,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -594,10 +624,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>13</v>
@@ -609,9 +639,10 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="n">
@@ -620,35 +651,38 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3"/>
     </row>

--- a/additional_files/pinout.xlsx
+++ b/additional_files/pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">dest</t>
   </si>
@@ -49,6 +49,12 @@
     <t xml:space="preserve">Configuration mode switch</t>
   </si>
   <si>
+    <t xml:space="preserve">load cell 1 D_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX</t>
   </si>
   <si>
@@ -64,16 +70,13 @@
     <t xml:space="preserve">Top temperature sensor DS18B20</t>
   </si>
   <si>
-    <t xml:space="preserve">load cell 1 D_OUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">load cell 1 SCK</t>
   </si>
   <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heater SSR output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
@@ -404,7 +407,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,8 +470,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="4" t="n">
         <v>36</v>
       </c>
@@ -486,7 +493,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -498,7 +505,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -516,10 +523,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>32</v>
@@ -532,10 +539,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>33</v>
@@ -547,10 +554,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="0"/>
       <c r="C11" s="4" t="n">
         <v>25</v>
       </c>
@@ -562,9 +566,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="4" t="n">
         <v>26</v>
       </c>
@@ -624,7 +630,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -642,7 +648,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="n">
@@ -654,11 +660,11 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -666,11 +672,11 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -678,11 +684,11 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" s="3"/>
     </row>

--- a/additional_files/pinout.xlsx
+++ b/additional_files/pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">dest</t>
   </si>
@@ -55,12 +55,27 @@
     <t xml:space="preserve">input</t>
   </si>
   <si>
+    <t xml:space="preserve">load cell 4 D_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load cell 2 D_OUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX</t>
   </si>
   <si>
+    <t xml:space="preserve">load cell 3 D_OUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">RX</t>
   </si>
   <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load cell 4 SCK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bottom temperature sensor DS18B20</t>
   </si>
   <si>
@@ -73,7 +88,10 @@
     <t xml:space="preserve">load cell 1 SCK</t>
   </si>
   <si>
-    <t xml:space="preserve">output</t>
+    <t xml:space="preserve">load cell 2 SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load cell 3 SCK</t>
   </si>
   <si>
     <t xml:space="preserve">Heater SSR output</t>
@@ -407,7 +425,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,29 +501,42 @@
       <c r="E5" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="4" t="n">
         <v>39</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="4" t="n">
         <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -519,14 +550,19 @@
       <c r="E8" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>32</v>
@@ -539,10 +575,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>33</v>
@@ -554,7 +590,12 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="4" t="n">
         <v>25</v>
       </c>
@@ -566,10 +607,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>26</v>
@@ -581,8 +622,12 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="4" t="n">
         <v>27</v>
       </c>
@@ -630,10 +675,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>13</v>
@@ -648,7 +693,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="n">
@@ -660,11 +705,11 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -672,11 +717,11 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -684,11 +729,11 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
     </row>
